--- a/data/Fichier carto_Cohésion numérique.xlsx
+++ b/data/Fichier carto_Cohésion numérique.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\DST\Carto\INTERACTIVITE\fthd_operateurs\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7310AF6D-8DE3-48AE-BC45-65849933FF7D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF0EAE49-6204-4A95-B662-24C64DDFA653}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6060" xr2:uid="{F4088C78-0757-43BB-9458-215F189C0BB2}"/>
   </bookViews>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6285" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6280" uniqueCount="209">
   <si>
     <t>INSEE dptmt</t>
   </si>
@@ -2060,10 +2060,10 @@
   <dimension ref="A1:AL105"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C80" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AH2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D85" sqref="D85:H85"/>
+      <selection pane="bottomRight" activeCell="AH12" sqref="AH12:AL12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3403,21 +3403,11 @@
       <c r="AG12" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="AH12" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="AI12" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AJ12" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="AK12" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="AL12" s="1" t="s">
-        <v>196</v>
-      </c>
+      <c r="AH12" s="1"/>
+      <c r="AI12" s="1"/>
+      <c r="AJ12" s="3"/>
+      <c r="AK12" s="1"/>
+      <c r="AL12" s="1"/>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
@@ -13258,104 +13248,102 @@
     <hyperlink ref="AE9" r:id="rId109" xr:uid="{18D522D7-2F85-4D28-92D4-523027616173}"/>
     <hyperlink ref="AE10" r:id="rId110" xr:uid="{3B62DAF0-F8D6-4EE8-8CEF-027770A03B4F}"/>
     <hyperlink ref="AE11" r:id="rId111" xr:uid="{14795386-3A2E-4C4C-8C07-EDE98545513A}"/>
-    <hyperlink ref="AJ12" r:id="rId112" xr:uid="{5F110337-59AD-47F3-8F88-C4ADB3711C95}"/>
-    <hyperlink ref="AE13" r:id="rId113" xr:uid="{A33ACF4F-4235-44C4-A036-413C5C326FDE}"/>
-    <hyperlink ref="AE14" r:id="rId114" xr:uid="{A3DE8F9C-9C85-4661-9E2E-833150571FFE}"/>
-    <hyperlink ref="AE15" r:id="rId115" xr:uid="{DDDEB5A2-6815-4CD0-9B6D-5C0DDC7B3ED2}"/>
-    <hyperlink ref="AE16" r:id="rId116" xr:uid="{176505AB-1D10-40E8-A80D-F09756CCE3BD}"/>
-    <hyperlink ref="AE17" r:id="rId117" xr:uid="{6593DA1C-A783-479A-B32A-1FC3864E473D}"/>
-    <hyperlink ref="AE18" r:id="rId118" xr:uid="{71C7FB0B-296E-4BEE-BF77-268EBA09E581}"/>
-    <hyperlink ref="AE19" r:id="rId119" xr:uid="{6485B074-6FE0-4D7A-B88B-54684C7F7AB8}"/>
-    <hyperlink ref="AE20" r:id="rId120" xr:uid="{B6CE832B-A344-4ADD-B1A6-5BA9EB480468}"/>
-    <hyperlink ref="AE21" r:id="rId121" xr:uid="{38B7A942-68C6-4048-AE39-BDB11B1C3B8D}"/>
-    <hyperlink ref="AE22" r:id="rId122" xr:uid="{25B09C7F-2CD8-43FB-BBDA-161C8284DD43}"/>
-    <hyperlink ref="AE23" r:id="rId123" xr:uid="{C0E69E3E-314E-46DC-A393-2772CF9AEDD4}"/>
-    <hyperlink ref="AE24" r:id="rId124" xr:uid="{6A0E75F0-9BA6-48A0-9CC7-57283A7AC694}"/>
-    <hyperlink ref="AE25" r:id="rId125" xr:uid="{1B582A97-0D4B-46BE-A41C-521F3230B962}"/>
-    <hyperlink ref="AE26" r:id="rId126" xr:uid="{EB8A72B4-5C9B-4E93-A7EC-E50FD0500BA9}"/>
-    <hyperlink ref="AE27" r:id="rId127" xr:uid="{814CA74B-1815-4A63-9FF0-1CA12A18A4C3}"/>
-    <hyperlink ref="AE28" r:id="rId128" xr:uid="{26194622-D8C9-41F0-A4CD-848EA4E6E5EA}"/>
-    <hyperlink ref="AE29" r:id="rId129" xr:uid="{CF04640E-F81E-4A9C-821E-DE14A22078D6}"/>
-    <hyperlink ref="AE30" r:id="rId130" xr:uid="{DA748457-C196-48D0-BE9B-906752909171}"/>
-    <hyperlink ref="AE31" r:id="rId131" xr:uid="{56D7878D-4355-4B4A-B1F0-A8142933336D}"/>
-    <hyperlink ref="AE32" r:id="rId132" xr:uid="{01D0D03D-F05A-464E-A965-36E6ED616093}"/>
-    <hyperlink ref="AE33" r:id="rId133" xr:uid="{76F7C961-731D-40AA-9E68-565C3229A6AB}"/>
-    <hyperlink ref="AE34" r:id="rId134" xr:uid="{2ED886C5-9746-4846-A2FC-5DE8A3BA0F74}"/>
-    <hyperlink ref="AE35" r:id="rId135" xr:uid="{C148BC10-7191-46BA-99ED-B5FD47EFF8FA}"/>
-    <hyperlink ref="AE36" r:id="rId136" xr:uid="{8397CF03-7808-4759-9477-1F3291F0BD4A}"/>
-    <hyperlink ref="AE37" r:id="rId137" xr:uid="{21BE95FD-2DFA-48F7-B58C-B46B8E7E7CCE}"/>
-    <hyperlink ref="AE38" r:id="rId138" xr:uid="{1EE79D4D-33B3-4D56-ACCE-F24153C778AE}"/>
-    <hyperlink ref="AE39" r:id="rId139" xr:uid="{B4512C7C-3A0A-40CB-8DAD-62E47814EC6C}"/>
-    <hyperlink ref="AE40" r:id="rId140" xr:uid="{13DC3F7D-2FD4-42EE-ADA9-FC6A77C7947C}"/>
-    <hyperlink ref="AE41" r:id="rId141" xr:uid="{861DDFD2-9F40-43EE-8414-E7F2BAA45D18}"/>
-    <hyperlink ref="AE42" r:id="rId142" xr:uid="{072531ED-9C8C-4763-A5BE-CD7D568B9888}"/>
-    <hyperlink ref="AE43" r:id="rId143" xr:uid="{E6CB5B67-9FDF-42DF-9077-49121A892A47}"/>
-    <hyperlink ref="AE44" r:id="rId144" xr:uid="{852AFE05-4F02-4137-8E5F-FB8A55C8D2CE}"/>
-    <hyperlink ref="AE45" r:id="rId145" xr:uid="{FAA553ED-A980-46FA-A202-57F384B2E57E}"/>
-    <hyperlink ref="AE46" r:id="rId146" xr:uid="{8C8FDD47-FA84-40C7-B3B6-A4A6DC34FF0E}"/>
-    <hyperlink ref="AE47" r:id="rId147" xr:uid="{9B3C49E3-2913-4279-B277-86F7583FBA94}"/>
-    <hyperlink ref="AE48" r:id="rId148" xr:uid="{E7563C45-03B0-4E1D-9AF3-FB56F228C0F1}"/>
-    <hyperlink ref="AE49" r:id="rId149" xr:uid="{23FCF1E1-9B1A-43AF-9E8E-6E923F3ED57A}"/>
-    <hyperlink ref="AE50" r:id="rId150" xr:uid="{FCD3A202-13B8-47E7-98F2-59FEE2461004}"/>
-    <hyperlink ref="AE51" r:id="rId151" xr:uid="{63F8E1DE-E69F-4298-B780-10BAE2F206B8}"/>
-    <hyperlink ref="AE52" r:id="rId152" xr:uid="{9CA70C9E-B87D-4B8C-9339-E191402B0308}"/>
-    <hyperlink ref="AE53" r:id="rId153" xr:uid="{56A1EC25-2CDD-4762-A4F4-985C23888B75}"/>
-    <hyperlink ref="AE54" r:id="rId154" xr:uid="{4BEDD272-89EB-49E9-9198-715C8C26E5C9}"/>
-    <hyperlink ref="AE55" r:id="rId155" xr:uid="{EA9AB2B0-2353-4B7C-8D3B-CAB88825D618}"/>
-    <hyperlink ref="AE56" r:id="rId156" xr:uid="{09367692-C918-4614-AECB-3FAC8DBFBDC2}"/>
-    <hyperlink ref="AE57" r:id="rId157" xr:uid="{B46E3BD7-1E95-4414-B5C1-F0200FDB35AE}"/>
-    <hyperlink ref="AE58" r:id="rId158" xr:uid="{1922C216-C223-4A6B-A13D-66763BCD519C}"/>
-    <hyperlink ref="AE59" r:id="rId159" xr:uid="{CAD860A1-0D70-4A00-9C7A-F577503F7788}"/>
-    <hyperlink ref="AE60" r:id="rId160" xr:uid="{3B5BBAC7-8198-40D5-8D99-675A97AADE56}"/>
-    <hyperlink ref="AE61" r:id="rId161" xr:uid="{7384663F-6387-4533-B33E-2519AC9B57D7}"/>
-    <hyperlink ref="AE62" r:id="rId162" xr:uid="{4109FE07-5DBA-498B-A1FD-4D3032B84B8F}"/>
-    <hyperlink ref="AE63" r:id="rId163" xr:uid="{81904D3F-5C03-4EA9-967F-8AC93A75A93E}"/>
-    <hyperlink ref="AE64" r:id="rId164" xr:uid="{BBF651E2-FCB4-4DEC-A6A8-1E58535A5FBC}"/>
-    <hyperlink ref="AE65" r:id="rId165" xr:uid="{0E35917C-9A55-4EC0-9ED6-48E7087C30E0}"/>
-    <hyperlink ref="AE66" r:id="rId166" xr:uid="{C679C752-0637-4D47-A370-27C24E23CE1B}"/>
-    <hyperlink ref="AE67" r:id="rId167" xr:uid="{438862A6-79CD-4343-B2C8-933D4F7647A3}"/>
-    <hyperlink ref="AE68" r:id="rId168" xr:uid="{6945A80B-00BA-4278-9C50-40BB33CD1F1C}"/>
-    <hyperlink ref="AE69" r:id="rId169" xr:uid="{56F41C0D-EC8B-452C-8256-3EC3A310DAA7}"/>
-    <hyperlink ref="AE70" r:id="rId170" xr:uid="{F4078B78-8F35-4148-96E5-0B4BB7FAA45B}"/>
-    <hyperlink ref="AE71" r:id="rId171" xr:uid="{336FB43C-56A8-47E7-85B1-A07AA3FA5B97}"/>
-    <hyperlink ref="AE72" r:id="rId172" xr:uid="{036BCB69-840A-4BA1-8AB6-8FCD35608154}"/>
-    <hyperlink ref="AE73" r:id="rId173" xr:uid="{BFF56284-0CB7-497C-88D3-A6DF9610EE90}"/>
-    <hyperlink ref="AE74" r:id="rId174" xr:uid="{607D91CB-B0B8-47FD-AEB9-33CEA7C00802}"/>
-    <hyperlink ref="AE76" r:id="rId175" xr:uid="{42CAA62A-7261-4331-87C0-CCC3FA4A2D33}"/>
-    <hyperlink ref="AE77" r:id="rId176" xr:uid="{296F6D62-A839-472F-95B4-94736284640E}"/>
-    <hyperlink ref="AE78" r:id="rId177" xr:uid="{1E367C2A-A277-46F6-8B51-DF2FFBF66C9A}"/>
-    <hyperlink ref="AE79" r:id="rId178" xr:uid="{273D1B1D-30EB-46F3-ACBB-84AFE46AD3CE}"/>
-    <hyperlink ref="AE80" r:id="rId179" xr:uid="{F3315A2B-BEF2-4206-994F-3379C2FEE4FD}"/>
-    <hyperlink ref="AE81" r:id="rId180" xr:uid="{27C5FF8B-6BE2-4BCD-ADA9-E85C4413AB7F}"/>
-    <hyperlink ref="AE82" r:id="rId181" xr:uid="{71D207D4-27B1-4D52-A745-76D71514687B}"/>
-    <hyperlink ref="AE83" r:id="rId182" xr:uid="{2586CF67-4835-490A-B368-55B8AD3B04F1}"/>
-    <hyperlink ref="AE84" r:id="rId183" xr:uid="{7B815C87-D4F7-4467-BA14-886DD71EAE02}"/>
-    <hyperlink ref="F85" r:id="rId184" xr:uid="{5A02FD29-DBAD-4975-87F1-AA0F68381388}"/>
-    <hyperlink ref="AE86" r:id="rId185" xr:uid="{D9739094-9CA4-44FC-B3B7-C261DA21DA75}"/>
-    <hyperlink ref="AE87" r:id="rId186" xr:uid="{9173026C-7993-4D88-9353-888DA6B6DEC0}"/>
-    <hyperlink ref="AE88" r:id="rId187" xr:uid="{E7D62471-620C-4184-A44A-A95E19599B7D}"/>
-    <hyperlink ref="AE89" r:id="rId188" xr:uid="{9FD0B535-5708-43CC-9EC8-85B9CB0D4FF8}"/>
-    <hyperlink ref="AE90" r:id="rId189" xr:uid="{EC241AE6-7F4B-4393-A755-1C6A556ED10F}"/>
-    <hyperlink ref="AE91" r:id="rId190" xr:uid="{E122C71E-4176-42E2-BE74-1055F65251C2}"/>
-    <hyperlink ref="Z92" r:id="rId191" xr:uid="{29D23239-7D1C-4B55-82C2-FEA4D94CAC0E}"/>
-    <hyperlink ref="Z93" r:id="rId192" xr:uid="{F41E3250-550D-4689-84FB-D6E916034CA4}"/>
-    <hyperlink ref="Z94" r:id="rId193" xr:uid="{51807BC9-5DCA-4652-8167-C5C0F72F9821}"/>
-    <hyperlink ref="AE95" r:id="rId194" xr:uid="{2FF71A57-AF0A-45D2-AD05-D67EAC625C59}"/>
-    <hyperlink ref="AE96" r:id="rId195" xr:uid="{C49924CB-E4EB-418D-A16D-49C0060B3358}"/>
-    <hyperlink ref="AE97" r:id="rId196" xr:uid="{6C3EFA0C-09ED-41A4-AFD1-0DE9D1D1810F}"/>
-    <hyperlink ref="U75" r:id="rId197" xr:uid="{AB25FF64-902D-41C5-A306-C9FF9C97ADC5}"/>
-    <hyperlink ref="Z75" r:id="rId198" xr:uid="{17081EE2-089B-4E8D-8DF9-AD4EF4FAA89E}"/>
-    <hyperlink ref="AJ45" r:id="rId199" xr:uid="{509256E8-6937-4275-9BE7-ED60A9D4E161}"/>
-    <hyperlink ref="AJ12" r:id="rId200" display="https://apinet.fr/internet-thd-radio/ " xr:uid="{7255367A-3230-4684-BA83-6E6F4A77BF7C}"/>
-    <hyperlink ref="AJ22" r:id="rId201" xr:uid="{2B2AB7DA-1983-4ACB-A5B9-F21A3733B607}"/>
-    <hyperlink ref="AJ29" r:id="rId202" xr:uid="{E74DB8B5-EAA6-4FBD-8FFF-7719AF8F8D80}"/>
-    <hyperlink ref="AJ35" r:id="rId203" xr:uid="{010A14E8-6467-4180-BA99-4D118C7FB88D}"/>
-    <hyperlink ref="AJ56" r:id="rId204" xr:uid="{3F51F3F0-D0F9-4DBC-9CD6-004B7970C8B3}"/>
-    <hyperlink ref="F12" r:id="rId205" display="https://apinet.fr/internet-thd-radio/ " xr:uid="{C18108D4-0A06-4353-B0D8-6259615C914E}"/>
+    <hyperlink ref="AE13" r:id="rId112" xr:uid="{A33ACF4F-4235-44C4-A036-413C5C326FDE}"/>
+    <hyperlink ref="AE14" r:id="rId113" xr:uid="{A3DE8F9C-9C85-4661-9E2E-833150571FFE}"/>
+    <hyperlink ref="AE15" r:id="rId114" xr:uid="{DDDEB5A2-6815-4CD0-9B6D-5C0DDC7B3ED2}"/>
+    <hyperlink ref="AE16" r:id="rId115" xr:uid="{176505AB-1D10-40E8-A80D-F09756CCE3BD}"/>
+    <hyperlink ref="AE17" r:id="rId116" xr:uid="{6593DA1C-A783-479A-B32A-1FC3864E473D}"/>
+    <hyperlink ref="AE18" r:id="rId117" xr:uid="{71C7FB0B-296E-4BEE-BF77-268EBA09E581}"/>
+    <hyperlink ref="AE19" r:id="rId118" xr:uid="{6485B074-6FE0-4D7A-B88B-54684C7F7AB8}"/>
+    <hyperlink ref="AE20" r:id="rId119" xr:uid="{B6CE832B-A344-4ADD-B1A6-5BA9EB480468}"/>
+    <hyperlink ref="AE21" r:id="rId120" xr:uid="{38B7A942-68C6-4048-AE39-BDB11B1C3B8D}"/>
+    <hyperlink ref="AE22" r:id="rId121" xr:uid="{25B09C7F-2CD8-43FB-BBDA-161C8284DD43}"/>
+    <hyperlink ref="AE23" r:id="rId122" xr:uid="{C0E69E3E-314E-46DC-A393-2772CF9AEDD4}"/>
+    <hyperlink ref="AE24" r:id="rId123" xr:uid="{6A0E75F0-9BA6-48A0-9CC7-57283A7AC694}"/>
+    <hyperlink ref="AE25" r:id="rId124" xr:uid="{1B582A97-0D4B-46BE-A41C-521F3230B962}"/>
+    <hyperlink ref="AE26" r:id="rId125" xr:uid="{EB8A72B4-5C9B-4E93-A7EC-E50FD0500BA9}"/>
+    <hyperlink ref="AE27" r:id="rId126" xr:uid="{814CA74B-1815-4A63-9FF0-1CA12A18A4C3}"/>
+    <hyperlink ref="AE28" r:id="rId127" xr:uid="{26194622-D8C9-41F0-A4CD-848EA4E6E5EA}"/>
+    <hyperlink ref="AE29" r:id="rId128" xr:uid="{CF04640E-F81E-4A9C-821E-DE14A22078D6}"/>
+    <hyperlink ref="AE30" r:id="rId129" xr:uid="{DA748457-C196-48D0-BE9B-906752909171}"/>
+    <hyperlink ref="AE31" r:id="rId130" xr:uid="{56D7878D-4355-4B4A-B1F0-A8142933336D}"/>
+    <hyperlink ref="AE32" r:id="rId131" xr:uid="{01D0D03D-F05A-464E-A965-36E6ED616093}"/>
+    <hyperlink ref="AE33" r:id="rId132" xr:uid="{76F7C961-731D-40AA-9E68-565C3229A6AB}"/>
+    <hyperlink ref="AE34" r:id="rId133" xr:uid="{2ED886C5-9746-4846-A2FC-5DE8A3BA0F74}"/>
+    <hyperlink ref="AE35" r:id="rId134" xr:uid="{C148BC10-7191-46BA-99ED-B5FD47EFF8FA}"/>
+    <hyperlink ref="AE36" r:id="rId135" xr:uid="{8397CF03-7808-4759-9477-1F3291F0BD4A}"/>
+    <hyperlink ref="AE37" r:id="rId136" xr:uid="{21BE95FD-2DFA-48F7-B58C-B46B8E7E7CCE}"/>
+    <hyperlink ref="AE38" r:id="rId137" xr:uid="{1EE79D4D-33B3-4D56-ACCE-F24153C778AE}"/>
+    <hyperlink ref="AE39" r:id="rId138" xr:uid="{B4512C7C-3A0A-40CB-8DAD-62E47814EC6C}"/>
+    <hyperlink ref="AE40" r:id="rId139" xr:uid="{13DC3F7D-2FD4-42EE-ADA9-FC6A77C7947C}"/>
+    <hyperlink ref="AE41" r:id="rId140" xr:uid="{861DDFD2-9F40-43EE-8414-E7F2BAA45D18}"/>
+    <hyperlink ref="AE42" r:id="rId141" xr:uid="{072531ED-9C8C-4763-A5BE-CD7D568B9888}"/>
+    <hyperlink ref="AE43" r:id="rId142" xr:uid="{E6CB5B67-9FDF-42DF-9077-49121A892A47}"/>
+    <hyperlink ref="AE44" r:id="rId143" xr:uid="{852AFE05-4F02-4137-8E5F-FB8A55C8D2CE}"/>
+    <hyperlink ref="AE45" r:id="rId144" xr:uid="{FAA553ED-A980-46FA-A202-57F384B2E57E}"/>
+    <hyperlink ref="AE46" r:id="rId145" xr:uid="{8C8FDD47-FA84-40C7-B3B6-A4A6DC34FF0E}"/>
+    <hyperlink ref="AE47" r:id="rId146" xr:uid="{9B3C49E3-2913-4279-B277-86F7583FBA94}"/>
+    <hyperlink ref="AE48" r:id="rId147" xr:uid="{E7563C45-03B0-4E1D-9AF3-FB56F228C0F1}"/>
+    <hyperlink ref="AE49" r:id="rId148" xr:uid="{23FCF1E1-9B1A-43AF-9E8E-6E923F3ED57A}"/>
+    <hyperlink ref="AE50" r:id="rId149" xr:uid="{FCD3A202-13B8-47E7-98F2-59FEE2461004}"/>
+    <hyperlink ref="AE51" r:id="rId150" xr:uid="{63F8E1DE-E69F-4298-B780-10BAE2F206B8}"/>
+    <hyperlink ref="AE52" r:id="rId151" xr:uid="{9CA70C9E-B87D-4B8C-9339-E191402B0308}"/>
+    <hyperlink ref="AE53" r:id="rId152" xr:uid="{56A1EC25-2CDD-4762-A4F4-985C23888B75}"/>
+    <hyperlink ref="AE54" r:id="rId153" xr:uid="{4BEDD272-89EB-49E9-9198-715C8C26E5C9}"/>
+    <hyperlink ref="AE55" r:id="rId154" xr:uid="{EA9AB2B0-2353-4B7C-8D3B-CAB88825D618}"/>
+    <hyperlink ref="AE56" r:id="rId155" xr:uid="{09367692-C918-4614-AECB-3FAC8DBFBDC2}"/>
+    <hyperlink ref="AE57" r:id="rId156" xr:uid="{B46E3BD7-1E95-4414-B5C1-F0200FDB35AE}"/>
+    <hyperlink ref="AE58" r:id="rId157" xr:uid="{1922C216-C223-4A6B-A13D-66763BCD519C}"/>
+    <hyperlink ref="AE59" r:id="rId158" xr:uid="{CAD860A1-0D70-4A00-9C7A-F577503F7788}"/>
+    <hyperlink ref="AE60" r:id="rId159" xr:uid="{3B5BBAC7-8198-40D5-8D99-675A97AADE56}"/>
+    <hyperlink ref="AE61" r:id="rId160" xr:uid="{7384663F-6387-4533-B33E-2519AC9B57D7}"/>
+    <hyperlink ref="AE62" r:id="rId161" xr:uid="{4109FE07-5DBA-498B-A1FD-4D3032B84B8F}"/>
+    <hyperlink ref="AE63" r:id="rId162" xr:uid="{81904D3F-5C03-4EA9-967F-8AC93A75A93E}"/>
+    <hyperlink ref="AE64" r:id="rId163" xr:uid="{BBF651E2-FCB4-4DEC-A6A8-1E58535A5FBC}"/>
+    <hyperlink ref="AE65" r:id="rId164" xr:uid="{0E35917C-9A55-4EC0-9ED6-48E7087C30E0}"/>
+    <hyperlink ref="AE66" r:id="rId165" xr:uid="{C679C752-0637-4D47-A370-27C24E23CE1B}"/>
+    <hyperlink ref="AE67" r:id="rId166" xr:uid="{438862A6-79CD-4343-B2C8-933D4F7647A3}"/>
+    <hyperlink ref="AE68" r:id="rId167" xr:uid="{6945A80B-00BA-4278-9C50-40BB33CD1F1C}"/>
+    <hyperlink ref="AE69" r:id="rId168" xr:uid="{56F41C0D-EC8B-452C-8256-3EC3A310DAA7}"/>
+    <hyperlink ref="AE70" r:id="rId169" xr:uid="{F4078B78-8F35-4148-96E5-0B4BB7FAA45B}"/>
+    <hyperlink ref="AE71" r:id="rId170" xr:uid="{336FB43C-56A8-47E7-85B1-A07AA3FA5B97}"/>
+    <hyperlink ref="AE72" r:id="rId171" xr:uid="{036BCB69-840A-4BA1-8AB6-8FCD35608154}"/>
+    <hyperlink ref="AE73" r:id="rId172" xr:uid="{BFF56284-0CB7-497C-88D3-A6DF9610EE90}"/>
+    <hyperlink ref="AE74" r:id="rId173" xr:uid="{607D91CB-B0B8-47FD-AEB9-33CEA7C00802}"/>
+    <hyperlink ref="AE76" r:id="rId174" xr:uid="{42CAA62A-7261-4331-87C0-CCC3FA4A2D33}"/>
+    <hyperlink ref="AE77" r:id="rId175" xr:uid="{296F6D62-A839-472F-95B4-94736284640E}"/>
+    <hyperlink ref="AE78" r:id="rId176" xr:uid="{1E367C2A-A277-46F6-8B51-DF2FFBF66C9A}"/>
+    <hyperlink ref="AE79" r:id="rId177" xr:uid="{273D1B1D-30EB-46F3-ACBB-84AFE46AD3CE}"/>
+    <hyperlink ref="AE80" r:id="rId178" xr:uid="{F3315A2B-BEF2-4206-994F-3379C2FEE4FD}"/>
+    <hyperlink ref="AE81" r:id="rId179" xr:uid="{27C5FF8B-6BE2-4BCD-ADA9-E85C4413AB7F}"/>
+    <hyperlink ref="AE82" r:id="rId180" xr:uid="{71D207D4-27B1-4D52-A745-76D71514687B}"/>
+    <hyperlink ref="AE83" r:id="rId181" xr:uid="{2586CF67-4835-490A-B368-55B8AD3B04F1}"/>
+    <hyperlink ref="AE84" r:id="rId182" xr:uid="{7B815C87-D4F7-4467-BA14-886DD71EAE02}"/>
+    <hyperlink ref="F85" r:id="rId183" xr:uid="{5A02FD29-DBAD-4975-87F1-AA0F68381388}"/>
+    <hyperlink ref="AE86" r:id="rId184" xr:uid="{D9739094-9CA4-44FC-B3B7-C261DA21DA75}"/>
+    <hyperlink ref="AE87" r:id="rId185" xr:uid="{9173026C-7993-4D88-9353-888DA6B6DEC0}"/>
+    <hyperlink ref="AE88" r:id="rId186" xr:uid="{E7D62471-620C-4184-A44A-A95E19599B7D}"/>
+    <hyperlink ref="AE89" r:id="rId187" xr:uid="{9FD0B535-5708-43CC-9EC8-85B9CB0D4FF8}"/>
+    <hyperlink ref="AE90" r:id="rId188" xr:uid="{EC241AE6-7F4B-4393-A755-1C6A556ED10F}"/>
+    <hyperlink ref="AE91" r:id="rId189" xr:uid="{E122C71E-4176-42E2-BE74-1055F65251C2}"/>
+    <hyperlink ref="Z92" r:id="rId190" xr:uid="{29D23239-7D1C-4B55-82C2-FEA4D94CAC0E}"/>
+    <hyperlink ref="Z93" r:id="rId191" xr:uid="{F41E3250-550D-4689-84FB-D6E916034CA4}"/>
+    <hyperlink ref="Z94" r:id="rId192" xr:uid="{51807BC9-5DCA-4652-8167-C5C0F72F9821}"/>
+    <hyperlink ref="AE95" r:id="rId193" xr:uid="{2FF71A57-AF0A-45D2-AD05-D67EAC625C59}"/>
+    <hyperlink ref="AE96" r:id="rId194" xr:uid="{C49924CB-E4EB-418D-A16D-49C0060B3358}"/>
+    <hyperlink ref="AE97" r:id="rId195" xr:uid="{6C3EFA0C-09ED-41A4-AFD1-0DE9D1D1810F}"/>
+    <hyperlink ref="U75" r:id="rId196" xr:uid="{AB25FF64-902D-41C5-A306-C9FF9C97ADC5}"/>
+    <hyperlink ref="Z75" r:id="rId197" xr:uid="{17081EE2-089B-4E8D-8DF9-AD4EF4FAA89E}"/>
+    <hyperlink ref="AJ45" r:id="rId198" xr:uid="{509256E8-6937-4275-9BE7-ED60A9D4E161}"/>
+    <hyperlink ref="AJ22" r:id="rId199" xr:uid="{2B2AB7DA-1983-4ACB-A5B9-F21A3733B607}"/>
+    <hyperlink ref="AJ29" r:id="rId200" xr:uid="{E74DB8B5-EAA6-4FBD-8FFF-7719AF8F8D80}"/>
+    <hyperlink ref="AJ35" r:id="rId201" xr:uid="{010A14E8-6467-4180-BA99-4D118C7FB88D}"/>
+    <hyperlink ref="AJ56" r:id="rId202" xr:uid="{3F51F3F0-D0F9-4DBC-9CD6-004B7970C8B3}"/>
+    <hyperlink ref="F12" r:id="rId203" display="https://apinet.fr/internet-thd-radio/ " xr:uid="{C18108D4-0A06-4353-B0D8-6259615C914E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId206"/>
+    <tablePart r:id="rId204"/>
   </tableParts>
 </worksheet>
 </file>
